--- a/templates/DV.xlsx
+++ b/templates/DV.xlsx
@@ -316,24 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <charset val="134"/>
     </font>
@@ -381,6 +365,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -412,8 +403,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <charset val="134"/>
     </font>
@@ -1544,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,17 +1656,8 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1680,10 +1671,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,6 +1693,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,10 +1739,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,7 +1802,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,20 +1858,23 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1915,16 +1912,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,7 +1934,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1958,7 +1949,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,7 +1974,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1994,7 +1985,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2009,7 +2000,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
@@ -2045,20 +2036,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2362,7 +2359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="14563725"/>
+          <a:off x="19050" y="14535150"/>
           <a:ext cx="6686550" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3309,7 +3306,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="13458825"/>
+          <a:off x="38100" y="13430250"/>
           <a:ext cx="11727815" cy="2398395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3341,7 +3338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9934575" y="14439900"/>
+          <a:off x="9934575" y="14411325"/>
           <a:ext cx="1276350" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3367,7 +3364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="30975300"/>
+          <a:off x="19050" y="30946725"/>
           <a:ext cx="6686550" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3834,7 +3831,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="123825" y="16802100"/>
+          <a:off x="123825" y="16773525"/>
           <a:ext cx="8648700" cy="1019175"/>
           <a:chOff x="1021650" y="3270413"/>
           <a:chExt cx="8648700" cy="1019175"/>
@@ -4314,7 +4311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="29870400"/>
+          <a:off x="38100" y="29841825"/>
           <a:ext cx="11727815" cy="2398395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4346,7 +4343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9934575" y="30851475"/>
+          <a:off x="9934575" y="30822900"/>
           <a:ext cx="1276350" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4620,8 +4617,8 @@
   <sheetPr/>
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:I26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4644,11 +4641,11 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87" t="s">
+      <c r="O1" s="84"/>
+      <c r="P1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="86"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" ht="18" spans="1:17">
       <c r="A2" s="3"/>
@@ -4665,9 +4662,9 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="164"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="161"/>
     </row>
     <row r="3" ht="15.75" spans="1:17">
       <c r="A3" s="5"/>
@@ -4684,11 +4681,11 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="90"/>
+      <c r="O3" s="88"/>
       <c r="P3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="90"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" ht="18" spans="1:17">
       <c r="A4" s="5"/>
@@ -4705,9 +4702,9 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="165"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5" ht="15.75" spans="1:17">
       <c r="A5" s="5"/>
@@ -4724,11 +4721,11 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="92" t="s">
+      <c r="O5" s="88"/>
+      <c r="P5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="154"/>
+      <c r="Q5" s="151"/>
     </row>
     <row r="6" ht="18.75" spans="1:17">
       <c r="A6" s="5"/>
@@ -4745,9 +4742,9 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" ht="23.25" spans="1:17">
       <c r="A7" s="11" t="s">
@@ -4767,8 +4764,8 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="166"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="163"/>
     </row>
     <row r="8" ht="15.75" spans="1:17">
       <c r="A8" s="13" t="s">
@@ -4789,7 +4786,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="86"/>
+      <c r="Q8" s="84"/>
     </row>
     <row r="9" ht="15.75" spans="1:17">
       <c r="A9" s="15"/>
@@ -4811,14 +4808,14 @@
         <v>7</v>
       </c>
       <c r="M9" s="18"/>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="94" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="P9" s="18"/>
-      <c r="Q9" s="167"/>
+      <c r="Q9" s="164"/>
     </row>
     <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="19"/>
@@ -4837,7 +4834,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="168"/>
+      <c r="Q10" s="165"/>
     </row>
     <row r="11" ht="20.25" spans="1:17">
       <c r="A11" s="13" t="s">
@@ -4859,10 +4856,10 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="97" t="s">
+      <c r="P11" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="86"/>
+      <c r="Q11" s="84"/>
     </row>
     <row r="12" ht="20.25" spans="1:17">
       <c r="A12" s="15"/>
@@ -4875,13 +4872,13 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="169"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="166"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="27" t="s">
@@ -4902,7 +4899,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
-      <c r="Q13" s="154"/>
+      <c r="Q13" s="151"/>
     </row>
     <row r="14" ht="15.75" spans="1:17">
       <c r="A14" s="19"/>
@@ -4921,7 +4918,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
-      <c r="Q14" s="170"/>
+      <c r="Q14" s="167"/>
     </row>
     <row r="15" ht="18" spans="1:17">
       <c r="A15" s="31" t="s">
@@ -4936,17 +4933,17 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="101" t="s">
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="99" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="32"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="101" t="s">
+      <c r="O15" s="100"/>
+      <c r="P15" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="171"/>
+      <c r="Q15" s="168"/>
     </row>
     <row r="16" ht="15.75" spans="1:17">
       <c r="A16" s="33"/>
@@ -4958,14 +4955,14 @@
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="172"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="169"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:17">
       <c r="A17" s="35"/>
@@ -4977,16 +4974,16 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="108"/>
       <c r="M17" s="16"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="111" t="s">
+      <c r="O17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="173"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="170"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:17">
       <c r="A18" s="35"/>
@@ -4998,14 +4995,14 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="114"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
       <c r="M18" s="16"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="115"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="16"/>
-      <c r="Q18" s="174"/>
+      <c r="Q18" s="171"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:17">
       <c r="A19" s="35"/>
@@ -5017,14 +5014,14 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="112"/>
       <c r="M19" s="16"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="174"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="171"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:17">
       <c r="A20" s="35"/>
@@ -5036,14 +5033,14 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="112"/>
       <c r="M20" s="16"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="174"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="171"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:17">
       <c r="A21" s="35"/>
@@ -5055,14 +5052,14 @@
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
       <c r="M21" s="16"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="174"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="171"/>
     </row>
     <row r="22" ht="15.75" spans="1:17">
       <c r="A22" s="35"/>
@@ -5074,14 +5071,14 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="108"/>
+      <c r="J22" s="106"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="115"/>
+      <c r="L22" s="113"/>
       <c r="M22" s="16"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="115"/>
+      <c r="O22" s="113"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="174"/>
+      <c r="Q22" s="171"/>
     </row>
     <row r="23" ht="15.75" spans="1:17">
       <c r="A23" s="37"/>
@@ -5093,14 +5090,14 @@
       <c r="G23" s="40"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="117"/>
+      <c r="J23" s="115"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="113"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="111"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="174"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="171"/>
     </row>
     <row r="24" ht="15.75" spans="1:17">
       <c r="A24" s="37"/>
@@ -5112,14 +5109,14 @@
       <c r="G24" s="40"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="117"/>
+      <c r="J24" s="115"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="113"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="111"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="174"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="171"/>
     </row>
     <row r="25" ht="18" spans="1:17">
       <c r="A25" s="37"/>
@@ -5133,14 +5130,14 @@
       <c r="G25" s="43"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="117"/>
+      <c r="J25" s="115"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="113"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="111"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="175"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="172"/>
     </row>
     <row r="26" ht="15.75" spans="1:17">
       <c r="A26" s="37"/>
@@ -5154,14 +5151,14 @@
       <c r="G26" s="43"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="117"/>
+      <c r="J26" s="115"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="113"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="111"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="174"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="171"/>
     </row>
     <row r="27" ht="15.75" spans="1:17">
       <c r="A27" s="37"/>
@@ -5173,55 +5170,55 @@
       <c r="G27" s="40"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="117"/>
+      <c r="J27" s="115"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="113"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="111"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="174"/>
-    </row>
-    <row r="28" ht="18" spans="1:17">
+      <c r="O27" s="112"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="171"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:17">
       <c r="A28" s="37"/>
       <c r="B28" s="18"/>
       <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="176"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="173"/>
     </row>
     <row r="29" ht="15.75" spans="1:17">
       <c r="A29" s="37"/>
       <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="177"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="174"/>
     </row>
     <row r="30" ht="18.75" spans="1:17">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="20"/>
@@ -5233,21 +5230,21 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="124"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="23"/>
-      <c r="O30" s="126" t="s">
+      <c r="O30" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="178"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="175"/>
     </row>
     <row r="31" ht="15.75" spans="1:17">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="8"/>
@@ -5264,10 +5261,10 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="90"/>
+      <c r="Q31" s="88"/>
     </row>
     <row r="32" ht="15.75" spans="1:17">
-      <c r="A32" s="52"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6" t="s">
         <v>22</v>
@@ -5284,11 +5281,11 @@
       <c r="M32" s="38"/>
       <c r="N32" s="18"/>
       <c r="O32" s="38"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="88"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="86"/>
     </row>
     <row r="33" ht="15.75" spans="1:17">
-      <c r="A33" s="52"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -5303,11 +5300,11 @@
       <c r="M33" s="38"/>
       <c r="N33" s="18"/>
       <c r="O33" s="38"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="88"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="86"/>
     </row>
     <row r="34" ht="15.75" spans="1:17">
-      <c r="A34" s="52"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -5322,11 +5319,11 @@
       <c r="M34" s="38"/>
       <c r="N34" s="18"/>
       <c r="O34" s="38"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="88"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="86"/>
     </row>
     <row r="35" ht="15.75" spans="1:17">
-      <c r="A35" s="52"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -5341,11 +5338,11 @@
       <c r="M35" s="38"/>
       <c r="N35" s="18"/>
       <c r="O35" s="38"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="88"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="86"/>
     </row>
     <row r="36" ht="20.25" spans="1:17">
-      <c r="A36" s="53"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5361,10 +5358,10 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="90"/>
+      <c r="Q36" s="88"/>
     </row>
     <row r="37" ht="21" spans="1:17">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="8"/>
@@ -5382,61 +5379,61 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="90"/>
+      <c r="Q37" s="88"/>
     </row>
     <row r="38" ht="15.75" spans="1:17">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="179"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="176"/>
     </row>
     <row r="39" ht="15.75" spans="1:17">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="129" t="s">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="L39" s="59"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="133" t="s">
+      <c r="L39" s="56"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="Q39" s="180" t="s">
+      <c r="Q39" s="177" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:17">
-      <c r="A40" s="60"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -5444,64 +5441,64 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="135"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="134"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="136"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="135"/>
       <c r="O40" s="28"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="181"/>
+      <c r="P40" s="136"/>
+      <c r="Q40" s="178"/>
     </row>
     <row r="41" ht="18" spans="1:17">
-      <c r="A41" s="60"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="138" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="139"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="139"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="181"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="139"/>
+      <c r="Q41" s="178"/>
     </row>
     <row r="42" ht="18" spans="1:17">
-      <c r="A42" s="60"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="138" t="s">
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="L42" s="139"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="139"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="181"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="178"/>
     </row>
     <row r="43" ht="18.75" spans="1:17">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="60" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="20"/>
@@ -5512,24 +5509,24 @@
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="196" t="s">
+      <c r="K43" s="195" t="s">
         <v>33</v>
       </c>
       <c r="L43" s="20"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="145"/>
-      <c r="O43" s="145"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="182">
+      <c r="M43" s="141"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="142"/>
+      <c r="P43" s="143"/>
+      <c r="Q43" s="179">
         <f>N40</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:17">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="62" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="20"/>
@@ -5540,7 +5537,7 @@
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="147" t="s">
+      <c r="K44" s="144" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="23" t="s">
@@ -5550,98 +5547,98 @@
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
-      <c r="Q44" s="170"/>
+      <c r="Q44" s="167"/>
     </row>
     <row r="45" ht="18" spans="1:17">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="148"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="145"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="86"/>
+      <c r="Q45" s="84"/>
     </row>
     <row r="46" ht="18" spans="1:17">
       <c r="A46" s="37"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
       <c r="K46" s="15"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="90"/>
+      <c r="Q46" s="88"/>
     </row>
     <row r="47" ht="18" spans="1:17">
-      <c r="A47" s="52"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
       <c r="K47" s="15"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="90"/>
+      <c r="Q47" s="88"/>
     </row>
     <row r="48" ht="18.75" spans="1:17">
-      <c r="A48" s="69"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="19"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
-      <c r="Q48" s="170"/>
+      <c r="Q48" s="167"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="69" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="72"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5649,18 +5646,18 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="149"/>
-      <c r="M49" s="150"/>
+      <c r="L49" s="146"/>
+      <c r="M49" s="147"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="86"/>
+      <c r="Q49" s="84"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="73"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
@@ -5670,20 +5667,20 @@
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="151"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="148"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
       <c r="P50" s="26"/>
-      <c r="Q50" s="165"/>
+      <c r="Q50" s="162"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="72" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="28"/>
-      <c r="C51" s="75"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -5691,18 +5688,18 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="152" t="s">
+      <c r="K51" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="L51" s="137"/>
-      <c r="M51" s="153"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="150"/>
       <c r="N51" s="28"/>
       <c r="O51" s="28"/>
       <c r="P51" s="28"/>
-      <c r="Q51" s="154"/>
+      <c r="Q51" s="151"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="73"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
@@ -5712,20 +5709,20 @@
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="151"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="148"/>
       <c r="M52" s="26"/>
       <c r="N52" s="26"/>
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
-      <c r="Q52" s="165"/>
+      <c r="Q52" s="162"/>
     </row>
     <row r="53" ht="20.25" spans="1:17">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="28"/>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="74" t="s">
         <v>45</v>
       </c>
       <c r="D53" s="28"/>
@@ -5734,23 +5731,23 @@
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="154"/>
-      <c r="K53" s="152" t="s">
+      <c r="J53" s="151"/>
+      <c r="K53" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="L53" s="137"/>
-      <c r="M53" s="76" t="s">
+      <c r="L53" s="136"/>
+      <c r="M53" s="74" t="s">
         <v>46</v>
       </c>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
-      <c r="Q53" s="154"/>
+      <c r="Q53" s="151"/>
     </row>
     <row r="54" ht="20.25" spans="1:17">
       <c r="A54" s="15"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="77" t="s">
+      <c r="C54" s="75" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="26"/>
@@ -5761,21 +5758,21 @@
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="155" t="s">
+      <c r="L54" s="133"/>
+      <c r="M54" s="152" t="s">
         <v>48</v>
       </c>
       <c r="N54" s="26"/>
       <c r="O54" s="26"/>
       <c r="P54" s="26"/>
-      <c r="Q54" s="165"/>
+      <c r="Q54" s="162"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="76" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="28"/>
-      <c r="C55" s="79"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -5783,15 +5780,15 @@
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
-      <c r="K55" s="78" t="s">
+      <c r="K55" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L55" s="137"/>
-      <c r="M55" s="156"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="153"/>
       <c r="N55" s="28"/>
       <c r="O55" s="28"/>
       <c r="P55" s="28"/>
-      <c r="Q55" s="154"/>
+      <c r="Q55" s="151"/>
     </row>
     <row r="56" ht="15.75" spans="1:17">
       <c r="A56" s="19"/>
@@ -5805,18 +5802,18 @@
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="19"/>
-      <c r="L56" s="144"/>
+      <c r="L56" s="141"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
-      <c r="Q56" s="170"/>
+      <c r="Q56" s="167"/>
     </row>
     <row r="57" ht="15.75" spans="1:17">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="32"/>
@@ -5831,18 +5828,18 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="102"/>
-      <c r="P57" s="157" t="s">
+      <c r="O57" s="100"/>
+      <c r="P57" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="Q57" s="183"/>
+      <c r="Q57" s="180"/>
     </row>
     <row r="58" ht="15.75" spans="1:17">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="79" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="28"/>
-      <c r="C58" s="82" t="s">
+      <c r="C58" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="28"/>
@@ -5850,24 +5847,24 @@
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="158" t="s">
+      <c r="I58" s="136"/>
+      <c r="J58" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="K58" s="159" t="s">
+      <c r="K58" s="156" t="s">
         <v>56</v>
       </c>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
-      <c r="O58" s="137"/>
-      <c r="P58" s="160" t="s">
+      <c r="O58" s="136"/>
+      <c r="P58" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="Q58" s="90"/>
+      <c r="Q58" s="88"/>
     </row>
     <row r="59" ht="18" spans="1:17">
-      <c r="A59" s="73"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="26"/>
@@ -5875,45 +5872,45 @@
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="151"/>
+      <c r="I59" s="148"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="161"/>
+      <c r="K59" s="158"/>
       <c r="L59" s="26"/>
       <c r="M59" s="26"/>
       <c r="N59" s="26"/>
-      <c r="O59" s="151"/>
+      <c r="O59" s="148"/>
       <c r="P59" s="25"/>
-      <c r="Q59" s="165"/>
+      <c r="Q59" s="162"/>
     </row>
     <row r="60" ht="15.75" spans="1:17">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="79" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="28"/>
-      <c r="C60" s="82"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="158" t="s">
+      <c r="I60" s="136"/>
+      <c r="J60" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="K60" s="159" t="s">
+      <c r="K60" s="156" t="s">
         <v>59</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
-      <c r="O60" s="137"/>
-      <c r="P60" s="106" t="s">
+      <c r="O60" s="136"/>
+      <c r="P60" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="Q60" s="184"/>
+      <c r="Q60" s="181"/>
     </row>
     <row r="61" ht="15.75" spans="1:17">
-      <c r="A61" s="73"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
@@ -5921,41 +5918,41 @@
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
-      <c r="I61" s="151"/>
+      <c r="I61" s="148"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="162"/>
+      <c r="K61" s="159"/>
       <c r="L61" s="26"/>
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="160" t="s">
+      <c r="O61" s="148"/>
+      <c r="P61" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="Q61" s="90"/>
+      <c r="Q61" s="88"/>
     </row>
     <row r="62" ht="16.5" spans="1:17">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="163"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="160"/>
       <c r="P62" s="30"/>
-      <c r="Q62" s="170"/>
+      <c r="Q62" s="167"/>
     </row>
     <row r="63" ht="15.75" spans="1:17">
-      <c r="A63" s="85"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5974,7 +5971,7 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" ht="15.75" spans="1:17">
-      <c r="A64" s="85"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -5993,7 +5990,7 @@
       <c r="Q64" s="7"/>
     </row>
     <row r="65" ht="15.75" spans="1:17">
-      <c r="A65" s="85"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -6012,7 +6009,7 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" ht="15.75" spans="1:17">
-      <c r="A66" s="85"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -6031,7 +6028,7 @@
       <c r="Q66" s="7"/>
     </row>
     <row r="67" ht="15.75" spans="1:17">
-      <c r="A67" s="185"/>
+      <c r="A67" s="182"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -6050,175 +6047,175 @@
       <c r="Q67" s="18"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="186"/>
-      <c r="B68" s="187"/>
-      <c r="C68" s="187"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
-      <c r="K68" s="187"/>
-      <c r="L68" s="187"/>
-      <c r="M68" s="187"/>
-      <c r="N68" s="187"/>
-      <c r="O68" s="187"/>
-      <c r="P68" s="187"/>
-      <c r="Q68" s="187"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="184"/>
+      <c r="C68" s="184"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="184"/>
+      <c r="F68" s="184"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="184"/>
+      <c r="I68" s="184"/>
+      <c r="J68" s="184"/>
+      <c r="K68" s="184"/>
+      <c r="L68" s="184"/>
+      <c r="M68" s="184"/>
+      <c r="N68" s="184"/>
+      <c r="O68" s="184"/>
+      <c r="P68" s="184"/>
+      <c r="Q68" s="184"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="186"/>
-      <c r="B69" s="187"/>
-      <c r="C69" s="187"/>
-      <c r="D69" s="187"/>
-      <c r="E69" s="187"/>
-      <c r="F69" s="187"/>
-      <c r="G69" s="187"/>
-      <c r="H69" s="187"/>
-      <c r="I69" s="187"/>
-      <c r="J69" s="187"/>
-      <c r="K69" s="187"/>
-      <c r="L69" s="187"/>
-      <c r="M69" s="187"/>
-      <c r="N69" s="187"/>
-      <c r="O69" s="187"/>
-      <c r="P69" s="187"/>
-      <c r="Q69" s="187"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="184"/>
+      <c r="C69" s="184"/>
+      <c r="D69" s="184"/>
+      <c r="E69" s="184"/>
+      <c r="F69" s="184"/>
+      <c r="G69" s="184"/>
+      <c r="H69" s="184"/>
+      <c r="I69" s="184"/>
+      <c r="J69" s="184"/>
+      <c r="K69" s="184"/>
+      <c r="L69" s="184"/>
+      <c r="M69" s="184"/>
+      <c r="N69" s="184"/>
+      <c r="O69" s="184"/>
+      <c r="P69" s="184"/>
+      <c r="Q69" s="184"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="188"/>
-      <c r="B70" s="187"/>
-      <c r="C70" s="187"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="187"/>
-      <c r="F70" s="187"/>
-      <c r="G70" s="187"/>
-      <c r="H70" s="187"/>
-      <c r="I70" s="187"/>
-      <c r="J70" s="187"/>
-      <c r="K70" s="187"/>
-      <c r="L70" s="187"/>
-      <c r="M70" s="187"/>
-      <c r="N70" s="187"/>
-      <c r="O70" s="187"/>
-      <c r="P70" s="187"/>
-      <c r="Q70" s="187"/>
+      <c r="A70" s="185"/>
+      <c r="B70" s="184"/>
+      <c r="C70" s="184"/>
+      <c r="D70" s="184"/>
+      <c r="E70" s="184"/>
+      <c r="F70" s="184"/>
+      <c r="G70" s="184"/>
+      <c r="H70" s="184"/>
+      <c r="I70" s="184"/>
+      <c r="J70" s="184"/>
+      <c r="K70" s="184"/>
+      <c r="L70" s="184"/>
+      <c r="M70" s="184"/>
+      <c r="N70" s="184"/>
+      <c r="O70" s="184"/>
+      <c r="P70" s="184"/>
+      <c r="Q70" s="184"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="189"/>
-      <c r="B71" s="190"/>
-      <c r="C71" s="187"/>
-      <c r="D71" s="187"/>
-      <c r="E71" s="187"/>
-      <c r="F71" s="187"/>
-      <c r="G71" s="187"/>
-      <c r="H71" s="187"/>
-      <c r="I71" s="187"/>
-      <c r="J71" s="187"/>
-      <c r="K71" s="187"/>
-      <c r="L71" s="187"/>
-      <c r="M71" s="187"/>
-      <c r="N71" s="187"/>
-      <c r="O71" s="187"/>
-      <c r="P71" s="187"/>
-      <c r="Q71" s="187"/>
+      <c r="A71" s="186"/>
+      <c r="B71" s="187"/>
+      <c r="C71" s="184"/>
+      <c r="D71" s="184"/>
+      <c r="E71" s="184"/>
+      <c r="F71" s="184"/>
+      <c r="G71" s="184"/>
+      <c r="H71" s="184"/>
+      <c r="I71" s="184"/>
+      <c r="J71" s="184"/>
+      <c r="K71" s="184"/>
+      <c r="L71" s="184"/>
+      <c r="M71" s="184"/>
+      <c r="N71" s="184"/>
+      <c r="O71" s="184"/>
+      <c r="P71" s="184"/>
+      <c r="Q71" s="184"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="189"/>
-      <c r="B72" s="190"/>
-      <c r="C72" s="187"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="187"/>
-      <c r="F72" s="187"/>
-      <c r="G72" s="187"/>
-      <c r="H72" s="187"/>
-      <c r="I72" s="187"/>
-      <c r="J72" s="187"/>
-      <c r="K72" s="187"/>
-      <c r="L72" s="187"/>
-      <c r="M72" s="187"/>
-      <c r="N72" s="187"/>
-      <c r="O72" s="187"/>
-      <c r="P72" s="187"/>
-      <c r="Q72" s="187"/>
+      <c r="A72" s="186"/>
+      <c r="B72" s="187"/>
+      <c r="C72" s="184"/>
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="184"/>
+      <c r="H72" s="184"/>
+      <c r="I72" s="184"/>
+      <c r="J72" s="184"/>
+      <c r="K72" s="184"/>
+      <c r="L72" s="184"/>
+      <c r="M72" s="184"/>
+      <c r="N72" s="184"/>
+      <c r="O72" s="184"/>
+      <c r="P72" s="184"/>
+      <c r="Q72" s="184"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="189"/>
-      <c r="B73" s="190"/>
-      <c r="C73" s="187"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="187"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="187"/>
-      <c r="J73" s="187"/>
-      <c r="K73" s="187"/>
-      <c r="L73" s="187"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="187"/>
-      <c r="P73" s="187"/>
-      <c r="Q73" s="187"/>
+      <c r="A73" s="186"/>
+      <c r="B73" s="187"/>
+      <c r="C73" s="184"/>
+      <c r="D73" s="184"/>
+      <c r="E73" s="184"/>
+      <c r="F73" s="184"/>
+      <c r="G73" s="184"/>
+      <c r="H73" s="184"/>
+      <c r="I73" s="184"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="184"/>
+      <c r="L73" s="184"/>
+      <c r="M73" s="184"/>
+      <c r="N73" s="184"/>
+      <c r="O73" s="184"/>
+      <c r="P73" s="184"/>
+      <c r="Q73" s="184"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="191"/>
-      <c r="B74" s="190"/>
-      <c r="C74" s="187"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="187"/>
-      <c r="G74" s="187"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="187"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="187"/>
-      <c r="M74" s="187"/>
-      <c r="N74" s="187"/>
-      <c r="O74" s="187"/>
-      <c r="P74" s="187"/>
-      <c r="Q74" s="187"/>
+      <c r="A74" s="188"/>
+      <c r="B74" s="187"/>
+      <c r="C74" s="184"/>
+      <c r="D74" s="184"/>
+      <c r="E74" s="184"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="184"/>
+      <c r="H74" s="184"/>
+      <c r="I74" s="184"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="184"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="184"/>
+      <c r="O74" s="184"/>
+      <c r="P74" s="184"/>
+      <c r="Q74" s="184"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="192"/>
-      <c r="B75" s="192"/>
-      <c r="C75" s="192"/>
-      <c r="D75" s="192"/>
-      <c r="E75" s="192"/>
-      <c r="F75" s="192"/>
-      <c r="G75" s="192"/>
-      <c r="H75" s="192"/>
-      <c r="I75" s="192"/>
-      <c r="J75" s="192"/>
-      <c r="K75" s="192"/>
-      <c r="L75" s="192"/>
-      <c r="M75" s="192"/>
-      <c r="N75" s="192"/>
-      <c r="O75" s="192"/>
-      <c r="P75" s="192"/>
-      <c r="Q75" s="192"/>
+      <c r="A75" s="189"/>
+      <c r="B75" s="189"/>
+      <c r="C75" s="189"/>
+      <c r="D75" s="189"/>
+      <c r="E75" s="189"/>
+      <c r="F75" s="189"/>
+      <c r="G75" s="189"/>
+      <c r="H75" s="189"/>
+      <c r="I75" s="189"/>
+      <c r="J75" s="189"/>
+      <c r="K75" s="189"/>
+      <c r="L75" s="189"/>
+      <c r="M75" s="189"/>
+      <c r="N75" s="189"/>
+      <c r="O75" s="189"/>
+      <c r="P75" s="189"/>
+      <c r="Q75" s="189"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="192"/>
-      <c r="B76" s="192"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="192"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="192"/>
-      <c r="G76" s="192"/>
-      <c r="H76" s="192"/>
-      <c r="I76" s="192"/>
-      <c r="J76" s="192"/>
-      <c r="K76" s="192"/>
-      <c r="L76" s="192"/>
-      <c r="M76" s="192"/>
-      <c r="N76" s="192"/>
-      <c r="O76" s="192"/>
-      <c r="P76" s="192"/>
-      <c r="Q76" s="192"/>
+      <c r="A76" s="189"/>
+      <c r="B76" s="189"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="189"/>
+      <c r="E76" s="189"/>
+      <c r="F76" s="189"/>
+      <c r="G76" s="189"/>
+      <c r="H76" s="189"/>
+      <c r="I76" s="189"/>
+      <c r="J76" s="189"/>
+      <c r="K76" s="189"/>
+      <c r="L76" s="189"/>
+      <c r="M76" s="189"/>
+      <c r="N76" s="189"/>
+      <c r="O76" s="189"/>
+      <c r="P76" s="189"/>
+      <c r="Q76" s="189"/>
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="1:17">
@@ -6236,11 +6233,11 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="86"/>
-      <c r="P80" s="87" t="s">
+      <c r="O80" s="84"/>
+      <c r="P80" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="Q80" s="86"/>
+      <c r="Q80" s="84"/>
     </row>
     <row r="81" ht="18" spans="1:17">
       <c r="A81" s="3"/>
@@ -6257,9 +6254,9 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
-      <c r="O81" s="88"/>
-      <c r="P81" s="89"/>
-      <c r="Q81" s="164"/>
+      <c r="O81" s="86"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="161"/>
     </row>
     <row r="82" ht="15.75" spans="1:17">
       <c r="A82" s="5"/>
@@ -6276,11 +6273,11 @@
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
-      <c r="O82" s="90"/>
+      <c r="O82" s="88"/>
       <c r="P82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q82" s="90"/>
+      <c r="Q82" s="88"/>
     </row>
     <row r="83" ht="18" spans="1:17">
       <c r="A83" s="5"/>
@@ -6297,9 +6294,9 @@
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
-      <c r="O83" s="90"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="165"/>
+      <c r="O83" s="88"/>
+      <c r="P83" s="89"/>
+      <c r="Q83" s="162"/>
     </row>
     <row r="84" ht="15.75" spans="1:17">
       <c r="A84" s="5"/>
@@ -6316,11 +6313,11 @@
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
-      <c r="O84" s="90"/>
-      <c r="P84" s="92" t="s">
+      <c r="O84" s="88"/>
+      <c r="P84" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Q84" s="154"/>
+      <c r="Q84" s="151"/>
     </row>
     <row r="85" ht="18.75" spans="1:17">
       <c r="A85" s="5"/>
@@ -6337,9 +6334,9 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="93"/>
-      <c r="P85" s="94"/>
-      <c r="Q85" s="90"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="92"/>
+      <c r="Q85" s="88"/>
     </row>
     <row r="86" ht="23.25" spans="1:17">
       <c r="A86" s="11" t="s">
@@ -6359,8 +6356,8 @@
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
-      <c r="P86" s="95"/>
-      <c r="Q86" s="166"/>
+      <c r="P86" s="93"/>
+      <c r="Q86" s="163"/>
     </row>
     <row r="87" ht="15.75" spans="1:17">
       <c r="A87" s="13" t="s">
@@ -6381,7 +6378,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
-      <c r="Q87" s="86"/>
+      <c r="Q87" s="84"/>
     </row>
     <row r="88" ht="15.75" spans="1:17">
       <c r="A88" s="15"/>
@@ -6403,14 +6400,14 @@
         <v>7</v>
       </c>
       <c r="M88" s="18"/>
-      <c r="N88" s="96" t="s">
+      <c r="N88" s="94" t="s">
         <v>8</v>
       </c>
       <c r="O88" s="18" t="s">
         <v>9</v>
       </c>
       <c r="P88" s="18"/>
-      <c r="Q88" s="167"/>
+      <c r="Q88" s="164"/>
     </row>
     <row r="89" ht="16.5" spans="1:17">
       <c r="A89" s="19"/>
@@ -6429,7 +6426,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="23"/>
       <c r="P89" s="22"/>
-      <c r="Q89" s="168"/>
+      <c r="Q89" s="165"/>
     </row>
     <row r="90" ht="20.25" spans="1:17">
       <c r="A90" s="13" t="s">
@@ -6453,10 +6450,10 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="97" t="s">
+      <c r="P90" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="Q90" s="86"/>
+      <c r="Q90" s="84"/>
     </row>
     <row r="91" ht="20.25" spans="1:17">
       <c r="A91" s="15"/>
@@ -6469,13 +6466,13 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
       <c r="J91" s="26"/>
-      <c r="K91" s="193"/>
+      <c r="K91" s="192"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-      <c r="P91" s="100"/>
-      <c r="Q91" s="169"/>
+      <c r="P91" s="98"/>
+      <c r="Q91" s="166"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="27" t="s">
@@ -6498,7 +6495,7 @@
       <c r="N92" s="28"/>
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
-      <c r="Q92" s="154"/>
+      <c r="Q92" s="151"/>
     </row>
     <row r="93" ht="15.75" spans="1:17">
       <c r="A93" s="19"/>
@@ -6517,7 +6514,7 @@
       <c r="N93" s="20"/>
       <c r="O93" s="20"/>
       <c r="P93" s="20"/>
-      <c r="Q93" s="170"/>
+      <c r="Q93" s="167"/>
     </row>
     <row r="94" ht="18" spans="1:17">
       <c r="A94" s="31" t="s">
@@ -6532,17 +6529,17 @@
       <c r="H94" s="32"/>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
-      <c r="K94" s="101"/>
-      <c r="L94" s="102"/>
-      <c r="M94" s="101" t="s">
+      <c r="K94" s="99"/>
+      <c r="L94" s="100"/>
+      <c r="M94" s="99" t="s">
         <v>15</v>
       </c>
       <c r="N94" s="32"/>
-      <c r="O94" s="102"/>
-      <c r="P94" s="101" t="s">
+      <c r="O94" s="100"/>
+      <c r="P94" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="171"/>
+      <c r="Q94" s="168"/>
     </row>
     <row r="95" ht="15.75" spans="1:17">
       <c r="A95" s="33"/>
@@ -6554,14 +6551,14 @@
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
-      <c r="J95" s="103"/>
-      <c r="K95" s="104"/>
-      <c r="L95" s="105"/>
-      <c r="M95" s="104"/>
-      <c r="N95" s="106"/>
-      <c r="O95" s="107"/>
-      <c r="P95" s="82"/>
-      <c r="Q95" s="172"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="102"/>
+      <c r="L95" s="103"/>
+      <c r="M95" s="102"/>
+      <c r="N95" s="104"/>
+      <c r="O95" s="105"/>
+      <c r="P95" s="80"/>
+      <c r="Q95" s="169"/>
     </row>
     <row r="96" ht="20.25" spans="1:17">
       <c r="A96" s="35"/>
@@ -6573,18 +6570,18 @@
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
-      <c r="J96" s="108"/>
-      <c r="K96" s="194" t="s">
+      <c r="J96" s="106"/>
+      <c r="K96" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="L96" s="195"/>
+      <c r="L96" s="194"/>
       <c r="M96" s="16"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="111" t="s">
+      <c r="O96" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="P96" s="112"/>
-      <c r="Q96" s="173"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="170"/>
     </row>
     <row r="97" ht="15.75" spans="1:17">
       <c r="A97" s="35"/>
@@ -6596,14 +6593,14 @@
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
-      <c r="J97" s="108"/>
-      <c r="K97" s="113"/>
-      <c r="L97" s="114"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="111"/>
+      <c r="L97" s="112"/>
       <c r="M97" s="16"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="115"/>
+      <c r="O97" s="113"/>
       <c r="P97" s="16"/>
-      <c r="Q97" s="174"/>
+      <c r="Q97" s="171"/>
     </row>
     <row r="98" ht="15.75" spans="1:17">
       <c r="A98" s="35"/>
@@ -6615,14 +6612,14 @@
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
       <c r="I98" s="36"/>
-      <c r="J98" s="108"/>
-      <c r="K98" s="113"/>
-      <c r="L98" s="114"/>
+      <c r="J98" s="106"/>
+      <c r="K98" s="111"/>
+      <c r="L98" s="112"/>
       <c r="M98" s="16"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="115"/>
-      <c r="P98" s="116"/>
-      <c r="Q98" s="174"/>
+      <c r="O98" s="113"/>
+      <c r="P98" s="114"/>
+      <c r="Q98" s="171"/>
     </row>
     <row r="99" ht="15.75" spans="1:17">
       <c r="A99" s="35"/>
@@ -6634,14 +6631,14 @@
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
-      <c r="J99" s="108"/>
-      <c r="K99" s="113"/>
-      <c r="L99" s="114"/>
+      <c r="J99" s="106"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="112"/>
       <c r="M99" s="16"/>
       <c r="N99" s="6"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="116"/>
-      <c r="Q99" s="174"/>
+      <c r="O99" s="113"/>
+      <c r="P99" s="114"/>
+      <c r="Q99" s="171"/>
     </row>
     <row r="100" ht="15.75" spans="1:17">
       <c r="A100" s="35"/>
@@ -6653,14 +6650,14 @@
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
-      <c r="J100" s="108"/>
-      <c r="K100" s="113"/>
-      <c r="L100" s="114"/>
+      <c r="J100" s="106"/>
+      <c r="K100" s="111"/>
+      <c r="L100" s="112"/>
       <c r="M100" s="16"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="115"/>
-      <c r="P100" s="116"/>
-      <c r="Q100" s="174"/>
+      <c r="O100" s="113"/>
+      <c r="P100" s="114"/>
+      <c r="Q100" s="171"/>
     </row>
     <row r="101" ht="15.75" spans="1:17">
       <c r="A101" s="35"/>
@@ -6672,14 +6669,14 @@
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
-      <c r="J101" s="108"/>
+      <c r="J101" s="106"/>
       <c r="K101" s="16"/>
-      <c r="L101" s="115"/>
+      <c r="L101" s="113"/>
       <c r="M101" s="16"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="115"/>
+      <c r="O101" s="113"/>
       <c r="P101" s="16"/>
-      <c r="Q101" s="174"/>
+      <c r="Q101" s="171"/>
     </row>
     <row r="102" ht="15.75" spans="1:17">
       <c r="A102" s="37"/>
@@ -6691,14 +6688,14 @@
       <c r="G102" s="40"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="117"/>
+      <c r="J102" s="115"/>
       <c r="K102" s="18"/>
-      <c r="L102" s="114"/>
-      <c r="M102" s="113"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="111"/>
       <c r="N102" s="18"/>
-      <c r="O102" s="114"/>
-      <c r="P102" s="118"/>
-      <c r="Q102" s="174"/>
+      <c r="O102" s="112"/>
+      <c r="P102" s="116"/>
+      <c r="Q102" s="171"/>
     </row>
     <row r="103" ht="15.75" spans="1:17">
       <c r="A103" s="37"/>
@@ -6710,14 +6707,14 @@
       <c r="G103" s="40"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="117"/>
+      <c r="J103" s="115"/>
       <c r="K103" s="18"/>
-      <c r="L103" s="114"/>
-      <c r="M103" s="113"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="111"/>
       <c r="N103" s="18"/>
-      <c r="O103" s="114"/>
-      <c r="P103" s="118"/>
-      <c r="Q103" s="174"/>
+      <c r="O103" s="112"/>
+      <c r="P103" s="116"/>
+      <c r="Q103" s="171"/>
     </row>
     <row r="104" ht="15.75" spans="1:17">
       <c r="A104" s="37"/>
@@ -6729,14 +6726,14 @@
       <c r="G104" s="40"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="117"/>
+      <c r="J104" s="115"/>
       <c r="K104" s="18"/>
-      <c r="L104" s="114"/>
-      <c r="M104" s="113"/>
+      <c r="L104" s="112"/>
+      <c r="M104" s="111"/>
       <c r="N104" s="18"/>
-      <c r="O104" s="114"/>
-      <c r="P104" s="118"/>
-      <c r="Q104" s="174"/>
+      <c r="O104" s="112"/>
+      <c r="P104" s="116"/>
+      <c r="Q104" s="171"/>
     </row>
     <row r="105" ht="15.75" spans="1:17">
       <c r="A105" s="37"/>
@@ -6748,14 +6745,14 @@
       <c r="G105" s="40"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="117"/>
+      <c r="J105" s="115"/>
       <c r="K105" s="18"/>
-      <c r="L105" s="114"/>
-      <c r="M105" s="113"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="111"/>
       <c r="N105" s="18"/>
-      <c r="O105" s="114"/>
-      <c r="P105" s="118"/>
-      <c r="Q105" s="174"/>
+      <c r="O105" s="112"/>
+      <c r="P105" s="116"/>
+      <c r="Q105" s="171"/>
     </row>
     <row r="106" ht="15.75" spans="1:17">
       <c r="A106" s="37"/>
@@ -6767,33 +6764,33 @@
       <c r="G106" s="40"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="117"/>
+      <c r="J106" s="115"/>
       <c r="K106" s="18"/>
-      <c r="L106" s="114"/>
-      <c r="M106" s="113"/>
+      <c r="L106" s="112"/>
+      <c r="M106" s="111"/>
       <c r="N106" s="18"/>
-      <c r="O106" s="114"/>
-      <c r="P106" s="118"/>
-      <c r="Q106" s="174"/>
+      <c r="O106" s="112"/>
+      <c r="P106" s="116"/>
+      <c r="Q106" s="171"/>
     </row>
     <row r="107" ht="18" spans="1:17">
       <c r="A107" s="37"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="119"/>
-      <c r="K107" s="120"/>
-      <c r="L107" s="121"/>
-      <c r="M107" s="122"/>
-      <c r="N107" s="120"/>
-      <c r="O107" s="121"/>
-      <c r="P107" s="123"/>
-      <c r="Q107" s="176"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="190"/>
+      <c r="E107" s="190"/>
+      <c r="F107" s="190"/>
+      <c r="G107" s="190"/>
+      <c r="H107" s="190"/>
+      <c r="I107" s="190"/>
+      <c r="J107" s="117"/>
+      <c r="K107" s="118"/>
+      <c r="L107" s="119"/>
+      <c r="M107" s="120"/>
+      <c r="N107" s="118"/>
+      <c r="O107" s="119"/>
+      <c r="P107" s="121"/>
+      <c r="Q107" s="173"/>
     </row>
     <row r="108" ht="15.75" spans="1:17">
       <c r="A108" s="37"/>
@@ -6801,21 +6798,21 @@
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="122"/>
-      <c r="L108" s="121"/>
-      <c r="M108" s="122"/>
-      <c r="N108" s="120"/>
-      <c r="O108" s="121"/>
-      <c r="P108" s="123"/>
-      <c r="Q108" s="177"/>
+      <c r="F108" s="191"/>
+      <c r="G108" s="122"/>
+      <c r="H108" s="122"/>
+      <c r="I108" s="122"/>
+      <c r="J108" s="122"/>
+      <c r="K108" s="120"/>
+      <c r="L108" s="119"/>
+      <c r="M108" s="120"/>
+      <c r="N108" s="118"/>
+      <c r="O108" s="119"/>
+      <c r="P108" s="121"/>
+      <c r="Q108" s="174"/>
     </row>
     <row r="109" ht="18.75" spans="1:17">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B109" s="20"/>
@@ -6827,24 +6824,24 @@
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
-      <c r="K109" s="124"/>
-      <c r="L109" s="125"/>
-      <c r="M109" s="124"/>
+      <c r="K109" s="123"/>
+      <c r="L109" s="124"/>
+      <c r="M109" s="123"/>
       <c r="N109" s="23"/>
-      <c r="O109" s="126" t="s">
+      <c r="O109" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="P109" s="127"/>
-      <c r="Q109" s="178">
+      <c r="P109" s="126"/>
+      <c r="Q109" s="175">
         <f>Q96</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" ht="15.75" spans="1:17">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C110" s="8"/>
@@ -6861,10 +6858,10 @@
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
-      <c r="Q110" s="90"/>
+      <c r="Q110" s="88"/>
     </row>
     <row r="111" ht="15.75" spans="1:17">
-      <c r="A111" s="52"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6" t="s">
         <v>22</v>
@@ -6881,11 +6878,11 @@
       <c r="M111" s="38"/>
       <c r="N111" s="18"/>
       <c r="O111" s="38"/>
-      <c r="P111" s="128"/>
-      <c r="Q111" s="88"/>
+      <c r="P111" s="127"/>
+      <c r="Q111" s="86"/>
     </row>
     <row r="112" ht="15.75" spans="1:17">
-      <c r="A112" s="52"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -6900,11 +6897,11 @@
       <c r="M112" s="38"/>
       <c r="N112" s="18"/>
       <c r="O112" s="38"/>
-      <c r="P112" s="128"/>
-      <c r="Q112" s="88"/>
+      <c r="P112" s="127"/>
+      <c r="Q112" s="86"/>
     </row>
     <row r="113" ht="15.75" spans="1:17">
-      <c r="A113" s="52"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -6919,11 +6916,11 @@
       <c r="M113" s="38"/>
       <c r="N113" s="18"/>
       <c r="O113" s="38"/>
-      <c r="P113" s="128"/>
-      <c r="Q113" s="88"/>
+      <c r="P113" s="127"/>
+      <c r="Q113" s="86"/>
     </row>
     <row r="114" ht="15.75" spans="1:17">
-      <c r="A114" s="52"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -6938,11 +6935,11 @@
       <c r="M114" s="38"/>
       <c r="N114" s="18"/>
       <c r="O114" s="38"/>
-      <c r="P114" s="128"/>
-      <c r="Q114" s="88"/>
+      <c r="P114" s="127"/>
+      <c r="Q114" s="86"/>
     </row>
     <row r="115" ht="20.25" spans="1:17">
-      <c r="A115" s="53"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6958,10 +6955,10 @@
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
-      <c r="Q115" s="90"/>
+      <c r="Q115" s="88"/>
     </row>
     <row r="116" ht="21" spans="1:17">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B116" s="8"/>
@@ -6979,107 +6976,107 @@
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
-      <c r="Q116" s="90"/>
+      <c r="Q116" s="88"/>
     </row>
     <row r="117" ht="15.75" spans="1:17">
-      <c r="A117" s="55" t="s">
+      <c r="A117" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="57"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="57"/>
-      <c r="O117" s="57"/>
-      <c r="P117" s="57"/>
-      <c r="Q117" s="179"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="54"/>
+      <c r="N117" s="54"/>
+      <c r="O117" s="54"/>
+      <c r="P117" s="54"/>
+      <c r="Q117" s="176"/>
     </row>
     <row r="118" ht="15.75" spans="1:17">
-      <c r="A118" s="58" t="s">
+      <c r="A118" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="59"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="59"/>
-      <c r="K118" s="129" t="s">
+      <c r="B118" s="56"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="L118" s="59"/>
-      <c r="M118" s="130"/>
-      <c r="N118" s="131"/>
-      <c r="O118" s="132"/>
-      <c r="P118" s="133" t="s">
+      <c r="L118" s="56"/>
+      <c r="M118" s="129"/>
+      <c r="N118" s="130"/>
+      <c r="O118" s="131"/>
+      <c r="P118" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="Q118" s="180" t="s">
+      <c r="Q118" s="177" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="119" ht="18" spans="1:17">
-      <c r="A119" s="60"/>
-      <c r="B119" s="45" t="s">
+      <c r="A119" s="57"/>
+      <c r="B119" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="138" t="s">
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="58"/>
+      <c r="J119" s="58"/>
+      <c r="K119" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="L119" s="139"/>
-      <c r="M119" s="140"/>
-      <c r="N119" s="139"/>
-      <c r="O119" s="139"/>
-      <c r="P119" s="140"/>
-      <c r="Q119" s="181"/>
+      <c r="L119" s="137"/>
+      <c r="M119" s="138"/>
+      <c r="N119" s="137"/>
+      <c r="O119" s="137"/>
+      <c r="P119" s="138"/>
+      <c r="Q119" s="178"/>
     </row>
     <row r="120" ht="18" spans="1:17">
-      <c r="A120" s="60"/>
-      <c r="B120" s="45" t="s">
+      <c r="A120" s="57"/>
+      <c r="B120" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="138" t="s">
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="58"/>
+      <c r="J120" s="58"/>
+      <c r="K120" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="L120" s="139"/>
-      <c r="M120" s="140"/>
-      <c r="N120" s="139"/>
-      <c r="O120" s="139"/>
-      <c r="P120" s="140"/>
-      <c r="Q120" s="181"/>
+      <c r="L120" s="137"/>
+      <c r="M120" s="138"/>
+      <c r="N120" s="137"/>
+      <c r="O120" s="137"/>
+      <c r="P120" s="138"/>
+      <c r="Q120" s="178"/>
     </row>
     <row r="121" ht="18.75" spans="1:17">
-      <c r="A121" s="61"/>
-      <c r="B121" s="62" t="s">
+      <c r="A121" s="59"/>
+      <c r="B121" s="60" t="s">
         <v>32</v>
       </c>
       <c r="C121" s="20"/>
@@ -7090,21 +7087,21 @@
       <c r="H121" s="20"/>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
-      <c r="K121" s="196" t="s">
+      <c r="K121" s="195" t="s">
         <v>33</v>
       </c>
       <c r="L121" s="20"/>
-      <c r="M121" s="144"/>
-      <c r="N121" s="145"/>
-      <c r="O121" s="145"/>
-      <c r="P121" s="146"/>
-      <c r="Q121" s="182"/>
+      <c r="M121" s="141"/>
+      <c r="N121" s="142"/>
+      <c r="O121" s="142"/>
+      <c r="P121" s="143"/>
+      <c r="Q121" s="179"/>
     </row>
     <row r="122" ht="16.5" spans="1:17">
-      <c r="A122" s="63" t="s">
+      <c r="A122" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B122" s="64" t="s">
+      <c r="B122" s="62" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="20"/>
@@ -7115,7 +7112,7 @@
       <c r="H122" s="20"/>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
-      <c r="K122" s="147" t="s">
+      <c r="K122" s="144" t="s">
         <v>36</v>
       </c>
       <c r="L122" s="23" t="s">
@@ -7125,98 +7122,98 @@
       <c r="N122" s="20"/>
       <c r="O122" s="20"/>
       <c r="P122" s="20"/>
-      <c r="Q122" s="170"/>
+      <c r="Q122" s="167"/>
     </row>
     <row r="123" ht="18" spans="1:17">
-      <c r="A123" s="65"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="67" t="s">
+      <c r="A123" s="63"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="148"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="145"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
-      <c r="Q123" s="86"/>
+      <c r="Q123" s="84"/>
     </row>
     <row r="124" ht="18" spans="1:17">
       <c r="A124" s="37"/>
       <c r="B124" s="17"/>
-      <c r="C124" s="68" t="s">
+      <c r="C124" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
-      <c r="J124" s="68"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="66"/>
       <c r="K124" s="15"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
-      <c r="Q124" s="90"/>
+      <c r="Q124" s="88"/>
     </row>
     <row r="125" ht="18" spans="1:17">
-      <c r="A125" s="52"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="17"/>
-      <c r="C125" s="68" t="s">
+      <c r="C125" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="68"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="68"/>
-      <c r="I125" s="68"/>
-      <c r="J125" s="68"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
       <c r="K125" s="15"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
-      <c r="Q125" s="90"/>
+      <c r="Q125" s="88"/>
     </row>
     <row r="126" ht="18.75" spans="1:17">
-      <c r="A126" s="69"/>
+      <c r="A126" s="67"/>
       <c r="B126" s="23"/>
-      <c r="C126" s="70" t="s">
+      <c r="C126" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D126" s="70"/>
-      <c r="E126" s="70"/>
-      <c r="F126" s="70"/>
-      <c r="G126" s="70"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="70"/>
-      <c r="J126" s="70"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="68"/>
+      <c r="J126" s="68"/>
       <c r="K126" s="19"/>
       <c r="L126" s="20"/>
       <c r="M126" s="20"/>
       <c r="N126" s="20"/>
       <c r="O126" s="20"/>
       <c r="P126" s="20"/>
-      <c r="Q126" s="170"/>
+      <c r="Q126" s="167"/>
     </row>
     <row r="127" spans="1:17">
-      <c r="A127" s="71" t="s">
+      <c r="A127" s="69" t="s">
         <v>42</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="72"/>
+      <c r="C127" s="70"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -7224,18 +7221,18 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="71" t="s">
+      <c r="K127" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="L127" s="149"/>
-      <c r="M127" s="150"/>
+      <c r="L127" s="146"/>
+      <c r="M127" s="147"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
-      <c r="Q127" s="86"/>
+      <c r="Q127" s="84"/>
     </row>
     <row r="128" spans="1:17">
-      <c r="A128" s="73"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="26"/>
       <c r="C128" s="25"/>
       <c r="D128" s="26"/>
@@ -7245,20 +7242,20 @@
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
       <c r="J128" s="26"/>
-      <c r="K128" s="73"/>
-      <c r="L128" s="151"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="148"/>
       <c r="M128" s="26"/>
       <c r="N128" s="26"/>
       <c r="O128" s="26"/>
       <c r="P128" s="26"/>
-      <c r="Q128" s="165"/>
+      <c r="Q128" s="162"/>
     </row>
     <row r="129" spans="1:17">
-      <c r="A129" s="74" t="s">
+      <c r="A129" s="72" t="s">
         <v>43</v>
       </c>
       <c r="B129" s="28"/>
-      <c r="C129" s="75"/>
+      <c r="C129" s="73"/>
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -7266,18 +7263,18 @@
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
       <c r="J129" s="28"/>
-      <c r="K129" s="152" t="s">
+      <c r="K129" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="L129" s="137"/>
-      <c r="M129" s="153"/>
+      <c r="L129" s="136"/>
+      <c r="M129" s="150"/>
       <c r="N129" s="28"/>
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
-      <c r="Q129" s="154"/>
+      <c r="Q129" s="151"/>
     </row>
     <row r="130" spans="1:17">
-      <c r="A130" s="73"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="26"/>
       <c r="C130" s="25"/>
       <c r="D130" s="26"/>
@@ -7287,20 +7284,20 @@
       <c r="H130" s="26"/>
       <c r="I130" s="26"/>
       <c r="J130" s="26"/>
-      <c r="K130" s="73"/>
-      <c r="L130" s="151"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="148"/>
       <c r="M130" s="26"/>
       <c r="N130" s="26"/>
       <c r="O130" s="26"/>
       <c r="P130" s="26"/>
-      <c r="Q130" s="165"/>
+      <c r="Q130" s="162"/>
     </row>
     <row r="131" ht="20.25" spans="1:17">
-      <c r="A131" s="74" t="s">
+      <c r="A131" s="72" t="s">
         <v>44</v>
       </c>
       <c r="B131" s="28"/>
-      <c r="C131" s="76" t="s">
+      <c r="C131" s="74" t="s">
         <v>45</v>
       </c>
       <c r="D131" s="28"/>
@@ -7309,23 +7306,23 @@
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
-      <c r="J131" s="154"/>
-      <c r="K131" s="152" t="s">
+      <c r="J131" s="151"/>
+      <c r="K131" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="L131" s="137"/>
-      <c r="M131" s="76" t="s">
+      <c r="L131" s="136"/>
+      <c r="M131" s="74" t="s">
         <v>46</v>
       </c>
       <c r="N131" s="28"/>
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
-      <c r="Q131" s="154"/>
+      <c r="Q131" s="151"/>
     </row>
     <row r="132" ht="20.25" spans="1:17">
       <c r="A132" s="15"/>
       <c r="B132" s="8"/>
-      <c r="C132" s="77" t="s">
+      <c r="C132" s="75" t="s">
         <v>47</v>
       </c>
       <c r="D132" s="26"/>
@@ -7336,21 +7333,21 @@
       <c r="I132" s="26"/>
       <c r="J132" s="26"/>
       <c r="K132" s="15"/>
-      <c r="L132" s="134"/>
-      <c r="M132" s="155" t="s">
+      <c r="L132" s="133"/>
+      <c r="M132" s="152" t="s">
         <v>48</v>
       </c>
       <c r="N132" s="26"/>
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>
-      <c r="Q132" s="165"/>
+      <c r="Q132" s="162"/>
     </row>
     <row r="133" spans="1:17">
-      <c r="A133" s="78" t="s">
+      <c r="A133" s="76" t="s">
         <v>49</v>
       </c>
       <c r="B133" s="28"/>
-      <c r="C133" s="79"/>
+      <c r="C133" s="77"/>
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
@@ -7358,15 +7355,15 @@
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
       <c r="J133" s="28"/>
-      <c r="K133" s="78" t="s">
+      <c r="K133" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L133" s="137"/>
-      <c r="M133" s="156"/>
+      <c r="L133" s="136"/>
+      <c r="M133" s="153"/>
       <c r="N133" s="28"/>
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
-      <c r="Q133" s="154"/>
+      <c r="Q133" s="151"/>
     </row>
     <row r="134" ht="15.75" spans="1:17">
       <c r="A134" s="19"/>
@@ -7380,18 +7377,18 @@
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
       <c r="K134" s="19"/>
-      <c r="L134" s="144"/>
+      <c r="L134" s="141"/>
       <c r="M134" s="20"/>
       <c r="N134" s="20"/>
       <c r="O134" s="20"/>
       <c r="P134" s="20"/>
-      <c r="Q134" s="170"/>
+      <c r="Q134" s="167"/>
     </row>
     <row r="135" ht="15.75" spans="1:17">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B135" s="80" t="s">
+      <c r="B135" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C135" s="32"/>
@@ -7406,18 +7403,18 @@
       <c r="L135" s="32"/>
       <c r="M135" s="32"/>
       <c r="N135" s="32"/>
-      <c r="O135" s="102"/>
-      <c r="P135" s="157" t="s">
+      <c r="O135" s="100"/>
+      <c r="P135" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="Q135" s="183"/>
+      <c r="Q135" s="180"/>
     </row>
     <row r="136" ht="15.75" spans="1:17">
-      <c r="A136" s="81" t="s">
+      <c r="A136" s="79" t="s">
         <v>53</v>
       </c>
       <c r="B136" s="28"/>
-      <c r="C136" s="82" t="s">
+      <c r="C136" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D136" s="28"/>
@@ -7425,24 +7422,24 @@
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
-      <c r="I136" s="137"/>
-      <c r="J136" s="158" t="s">
+      <c r="I136" s="136"/>
+      <c r="J136" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="K136" s="159" t="s">
+      <c r="K136" s="156" t="s">
         <v>56</v>
       </c>
       <c r="L136" s="28"/>
       <c r="M136" s="28"/>
       <c r="N136" s="28"/>
-      <c r="O136" s="137"/>
-      <c r="P136" s="160" t="s">
+      <c r="O136" s="136"/>
+      <c r="P136" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="Q136" s="90"/>
+      <c r="Q136" s="88"/>
     </row>
     <row r="137" ht="18" spans="1:17">
-      <c r="A137" s="73"/>
+      <c r="A137" s="71"/>
       <c r="B137" s="26"/>
       <c r="C137" s="25"/>
       <c r="D137" s="26"/>
@@ -7450,45 +7447,45 @@
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
-      <c r="I137" s="151"/>
+      <c r="I137" s="148"/>
       <c r="J137" s="25"/>
-      <c r="K137" s="161"/>
+      <c r="K137" s="158"/>
       <c r="L137" s="26"/>
       <c r="M137" s="26"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="151"/>
+      <c r="O137" s="148"/>
       <c r="P137" s="25"/>
-      <c r="Q137" s="165"/>
+      <c r="Q137" s="162"/>
     </row>
     <row r="138" ht="15.75" spans="1:17">
-      <c r="A138" s="81" t="s">
+      <c r="A138" s="79" t="s">
         <v>58</v>
       </c>
       <c r="B138" s="28"/>
-      <c r="C138" s="82"/>
+      <c r="C138" s="80"/>
       <c r="D138" s="28"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
-      <c r="I138" s="137"/>
-      <c r="J138" s="158" t="s">
+      <c r="I138" s="136"/>
+      <c r="J138" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="K138" s="159" t="s">
+      <c r="K138" s="156" t="s">
         <v>59</v>
       </c>
       <c r="L138" s="28"/>
       <c r="M138" s="28"/>
       <c r="N138" s="28"/>
-      <c r="O138" s="137"/>
-      <c r="P138" s="106" t="s">
+      <c r="O138" s="136"/>
+      <c r="P138" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="Q138" s="184"/>
+      <c r="Q138" s="181"/>
     </row>
     <row r="139" ht="15.75" spans="1:17">
-      <c r="A139" s="73"/>
+      <c r="A139" s="71"/>
       <c r="B139" s="26"/>
       <c r="C139" s="25"/>
       <c r="D139" s="26"/>
@@ -7496,41 +7493,41 @@
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
       <c r="H139" s="26"/>
-      <c r="I139" s="151"/>
+      <c r="I139" s="148"/>
       <c r="J139" s="25"/>
-      <c r="K139" s="162"/>
+      <c r="K139" s="159"/>
       <c r="L139" s="26"/>
       <c r="M139" s="26"/>
       <c r="N139" s="26"/>
-      <c r="O139" s="151"/>
-      <c r="P139" s="160" t="s">
+      <c r="O139" s="148"/>
+      <c r="P139" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="Q139" s="90"/>
+      <c r="Q139" s="88"/>
     </row>
     <row r="140" ht="16.5" spans="1:17">
-      <c r="A140" s="83" t="s">
+      <c r="A140" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B140" s="84"/>
-      <c r="C140" s="84"/>
-      <c r="D140" s="84"/>
-      <c r="E140" s="84"/>
-      <c r="F140" s="84"/>
-      <c r="G140" s="84"/>
-      <c r="H140" s="84"/>
-      <c r="I140" s="84"/>
-      <c r="J140" s="84"/>
-      <c r="K140" s="84"/>
-      <c r="L140" s="84"/>
-      <c r="M140" s="84"/>
-      <c r="N140" s="84"/>
-      <c r="O140" s="163"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="82"/>
+      <c r="D140" s="82"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
+      <c r="J140" s="82"/>
+      <c r="K140" s="82"/>
+      <c r="L140" s="82"/>
+      <c r="M140" s="82"/>
+      <c r="N140" s="82"/>
+      <c r="O140" s="160"/>
       <c r="P140" s="30"/>
-      <c r="Q140" s="170"/>
+      <c r="Q140" s="167"/>
     </row>
     <row r="141" ht="15.75" spans="1:17">
-      <c r="A141" s="85"/>
+      <c r="A141" s="83"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -7549,7 +7546,7 @@
       <c r="Q141" s="7"/>
     </row>
     <row r="142" ht="15.75" spans="1:17">
-      <c r="A142" s="85"/>
+      <c r="A142" s="83"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -7568,7 +7565,7 @@
       <c r="Q142" s="7"/>
     </row>
     <row r="143" ht="15.75" spans="1:17">
-      <c r="A143" s="85"/>
+      <c r="A143" s="83"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -7587,7 +7584,7 @@
       <c r="Q143" s="7"/>
     </row>
     <row r="144" ht="15.75" spans="1:17">
-      <c r="A144" s="85"/>
+      <c r="A144" s="83"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -7606,7 +7603,7 @@
       <c r="Q144" s="7"/>
     </row>
     <row r="145" ht="15.75" spans="1:17">
-      <c r="A145" s="185"/>
+      <c r="A145" s="182"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
@@ -7625,156 +7622,156 @@
       <c r="Q145" s="18"/>
     </row>
     <row r="146" spans="1:17">
-      <c r="A146" s="186"/>
-      <c r="B146" s="187"/>
-      <c r="C146" s="187"/>
-      <c r="D146" s="187"/>
-      <c r="E146" s="187"/>
-      <c r="F146" s="187"/>
-      <c r="G146" s="187"/>
-      <c r="H146" s="187"/>
-      <c r="I146" s="187"/>
-      <c r="J146" s="187"/>
-      <c r="K146" s="187"/>
-      <c r="L146" s="187"/>
-      <c r="M146" s="187"/>
-      <c r="N146" s="187"/>
-      <c r="O146" s="187"/>
-      <c r="P146" s="187"/>
-      <c r="Q146" s="187"/>
+      <c r="A146" s="183"/>
+      <c r="B146" s="184"/>
+      <c r="C146" s="184"/>
+      <c r="D146" s="184"/>
+      <c r="E146" s="184"/>
+      <c r="F146" s="184"/>
+      <c r="G146" s="184"/>
+      <c r="H146" s="184"/>
+      <c r="I146" s="184"/>
+      <c r="J146" s="184"/>
+      <c r="K146" s="184"/>
+      <c r="L146" s="184"/>
+      <c r="M146" s="184"/>
+      <c r="N146" s="184"/>
+      <c r="O146" s="184"/>
+      <c r="P146" s="184"/>
+      <c r="Q146" s="184"/>
     </row>
     <row r="147" spans="1:17">
-      <c r="A147" s="186"/>
-      <c r="B147" s="187"/>
-      <c r="C147" s="187"/>
-      <c r="D147" s="187"/>
-      <c r="E147" s="187"/>
-      <c r="F147" s="187"/>
-      <c r="G147" s="187"/>
-      <c r="H147" s="187"/>
-      <c r="I147" s="187"/>
-      <c r="J147" s="187"/>
-      <c r="K147" s="187"/>
-      <c r="L147" s="187"/>
-      <c r="M147" s="187"/>
-      <c r="N147" s="187"/>
-      <c r="O147" s="187"/>
-      <c r="P147" s="187"/>
-      <c r="Q147" s="187"/>
+      <c r="A147" s="183"/>
+      <c r="B147" s="184"/>
+      <c r="C147" s="184"/>
+      <c r="D147" s="184"/>
+      <c r="E147" s="184"/>
+      <c r="F147" s="184"/>
+      <c r="G147" s="184"/>
+      <c r="H147" s="184"/>
+      <c r="I147" s="184"/>
+      <c r="J147" s="184"/>
+      <c r="K147" s="184"/>
+      <c r="L147" s="184"/>
+      <c r="M147" s="184"/>
+      <c r="N147" s="184"/>
+      <c r="O147" s="184"/>
+      <c r="P147" s="184"/>
+      <c r="Q147" s="184"/>
     </row>
     <row r="148" spans="1:17">
-      <c r="A148" s="188"/>
-      <c r="B148" s="187"/>
-      <c r="C148" s="187"/>
-      <c r="D148" s="187"/>
-      <c r="E148" s="187"/>
-      <c r="F148" s="187"/>
-      <c r="G148" s="187"/>
-      <c r="H148" s="187"/>
-      <c r="I148" s="187"/>
-      <c r="J148" s="187"/>
-      <c r="K148" s="187"/>
-      <c r="L148" s="187"/>
-      <c r="M148" s="187"/>
-      <c r="N148" s="187"/>
-      <c r="O148" s="187"/>
-      <c r="P148" s="187"/>
-      <c r="Q148" s="187"/>
+      <c r="A148" s="185"/>
+      <c r="B148" s="184"/>
+      <c r="C148" s="184"/>
+      <c r="D148" s="184"/>
+      <c r="E148" s="184"/>
+      <c r="F148" s="184"/>
+      <c r="G148" s="184"/>
+      <c r="H148" s="184"/>
+      <c r="I148" s="184"/>
+      <c r="J148" s="184"/>
+      <c r="K148" s="184"/>
+      <c r="L148" s="184"/>
+      <c r="M148" s="184"/>
+      <c r="N148" s="184"/>
+      <c r="O148" s="184"/>
+      <c r="P148" s="184"/>
+      <c r="Q148" s="184"/>
     </row>
     <row r="149" spans="1:17">
-      <c r="A149" s="189"/>
-      <c r="B149" s="190"/>
-      <c r="C149" s="187"/>
-      <c r="D149" s="187"/>
-      <c r="E149" s="187"/>
-      <c r="F149" s="187"/>
-      <c r="G149" s="187"/>
-      <c r="H149" s="187"/>
-      <c r="I149" s="187"/>
-      <c r="J149" s="187"/>
-      <c r="K149" s="187"/>
-      <c r="L149" s="187"/>
-      <c r="M149" s="187"/>
-      <c r="N149" s="187"/>
-      <c r="O149" s="187"/>
-      <c r="P149" s="187"/>
-      <c r="Q149" s="187"/>
+      <c r="A149" s="186"/>
+      <c r="B149" s="187"/>
+      <c r="C149" s="184"/>
+      <c r="D149" s="184"/>
+      <c r="E149" s="184"/>
+      <c r="F149" s="184"/>
+      <c r="G149" s="184"/>
+      <c r="H149" s="184"/>
+      <c r="I149" s="184"/>
+      <c r="J149" s="184"/>
+      <c r="K149" s="184"/>
+      <c r="L149" s="184"/>
+      <c r="M149" s="184"/>
+      <c r="N149" s="184"/>
+      <c r="O149" s="184"/>
+      <c r="P149" s="184"/>
+      <c r="Q149" s="184"/>
     </row>
     <row r="150" spans="1:17">
-      <c r="A150" s="189"/>
-      <c r="B150" s="190"/>
-      <c r="C150" s="187"/>
-      <c r="D150" s="187"/>
-      <c r="E150" s="187"/>
-      <c r="F150" s="187"/>
-      <c r="G150" s="187"/>
-      <c r="H150" s="187"/>
-      <c r="I150" s="187"/>
-      <c r="J150" s="187"/>
-      <c r="K150" s="187"/>
-      <c r="L150" s="187"/>
-      <c r="M150" s="187"/>
-      <c r="N150" s="187"/>
-      <c r="O150" s="187"/>
-      <c r="P150" s="187"/>
-      <c r="Q150" s="187"/>
+      <c r="A150" s="186"/>
+      <c r="B150" s="187"/>
+      <c r="C150" s="184"/>
+      <c r="D150" s="184"/>
+      <c r="E150" s="184"/>
+      <c r="F150" s="184"/>
+      <c r="G150" s="184"/>
+      <c r="H150" s="184"/>
+      <c r="I150" s="184"/>
+      <c r="J150" s="184"/>
+      <c r="K150" s="184"/>
+      <c r="L150" s="184"/>
+      <c r="M150" s="184"/>
+      <c r="N150" s="184"/>
+      <c r="O150" s="184"/>
+      <c r="P150" s="184"/>
+      <c r="Q150" s="184"/>
     </row>
     <row r="151" spans="1:17">
-      <c r="A151" s="189"/>
-      <c r="B151" s="190"/>
-      <c r="C151" s="187"/>
-      <c r="D151" s="187"/>
-      <c r="E151" s="187"/>
-      <c r="F151" s="187"/>
-      <c r="G151" s="187"/>
-      <c r="H151" s="187"/>
-      <c r="I151" s="187"/>
-      <c r="J151" s="187"/>
-      <c r="K151" s="187"/>
-      <c r="L151" s="187"/>
-      <c r="M151" s="187"/>
-      <c r="N151" s="187"/>
-      <c r="O151" s="187"/>
-      <c r="P151" s="187"/>
-      <c r="Q151" s="187"/>
+      <c r="A151" s="186"/>
+      <c r="B151" s="187"/>
+      <c r="C151" s="184"/>
+      <c r="D151" s="184"/>
+      <c r="E151" s="184"/>
+      <c r="F151" s="184"/>
+      <c r="G151" s="184"/>
+      <c r="H151" s="184"/>
+      <c r="I151" s="184"/>
+      <c r="J151" s="184"/>
+      <c r="K151" s="184"/>
+      <c r="L151" s="184"/>
+      <c r="M151" s="184"/>
+      <c r="N151" s="184"/>
+      <c r="O151" s="184"/>
+      <c r="P151" s="184"/>
+      <c r="Q151" s="184"/>
     </row>
     <row r="152" spans="1:17">
-      <c r="A152" s="191"/>
-      <c r="B152" s="190"/>
-      <c r="C152" s="187"/>
-      <c r="D152" s="187"/>
-      <c r="E152" s="187"/>
-      <c r="F152" s="187"/>
-      <c r="G152" s="187"/>
-      <c r="H152" s="187"/>
-      <c r="I152" s="187"/>
-      <c r="J152" s="187"/>
-      <c r="K152" s="187"/>
-      <c r="L152" s="187"/>
-      <c r="M152" s="187"/>
-      <c r="N152" s="187"/>
-      <c r="O152" s="187"/>
-      <c r="P152" s="187"/>
-      <c r="Q152" s="187"/>
+      <c r="A152" s="188"/>
+      <c r="B152" s="187"/>
+      <c r="C152" s="184"/>
+      <c r="D152" s="184"/>
+      <c r="E152" s="184"/>
+      <c r="F152" s="184"/>
+      <c r="G152" s="184"/>
+      <c r="H152" s="184"/>
+      <c r="I152" s="184"/>
+      <c r="J152" s="184"/>
+      <c r="K152" s="184"/>
+      <c r="L152" s="184"/>
+      <c r="M152" s="184"/>
+      <c r="N152" s="184"/>
+      <c r="O152" s="184"/>
+      <c r="P152" s="184"/>
+      <c r="Q152" s="184"/>
     </row>
     <row r="153" spans="1:17">
-      <c r="A153" s="192"/>
-      <c r="B153" s="192"/>
-      <c r="C153" s="192"/>
-      <c r="D153" s="192"/>
-      <c r="E153" s="192"/>
-      <c r="F153" s="192"/>
-      <c r="G153" s="192"/>
-      <c r="H153" s="192"/>
-      <c r="I153" s="192"/>
-      <c r="J153" s="192"/>
-      <c r="K153" s="192"/>
-      <c r="L153" s="192"/>
-      <c r="M153" s="192"/>
-      <c r="N153" s="192"/>
-      <c r="O153" s="192"/>
-      <c r="P153" s="192"/>
-      <c r="Q153" s="192"/>
+      <c r="A153" s="189"/>
+      <c r="B153" s="189"/>
+      <c r="C153" s="189"/>
+      <c r="D153" s="189"/>
+      <c r="E153" s="189"/>
+      <c r="F153" s="189"/>
+      <c r="G153" s="189"/>
+      <c r="H153" s="189"/>
+      <c r="I153" s="189"/>
+      <c r="J153" s="189"/>
+      <c r="K153" s="189"/>
+      <c r="L153" s="189"/>
+      <c r="M153" s="189"/>
+      <c r="N153" s="189"/>
+      <c r="O153" s="189"/>
+      <c r="P153" s="189"/>
+      <c r="Q153" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -7811,7 +7808,6 @@
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="C28:I28"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="A36:Q36"/>
@@ -7957,6 +7953,7 @@
     <mergeCell ref="A138:B139"/>
     <mergeCell ref="C138:I139"/>
     <mergeCell ref="P139:Q140"/>
+    <mergeCell ref="C28:I29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/templates/DV.xlsx
+++ b/templates/DV.xlsx
@@ -234,7 +234,7 @@
     <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +561,17 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1395,7 +1406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,6 +1554,9 @@
     <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2068,7 +2082,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2118,6 +2132,9 @@
     <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Comma 3" xfId="50"/>
+    <cellStyle name="Comma 2" xfId="51"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2347,476 +2364,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6686550" cy="1304925"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="14535150"/>
-          <a:ext cx="6686550" cy="1304925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-GB"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>National Hi-way,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 502-0145 (COA) • 559 0727 (Regional Manager)</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t> • 576 5543 (Equipment) • 559-0724 (Finance) Telefax No.: (049) 559 0726</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Email:r4a@nia.gov.ph●Website: region4a.nia.gov.ph  Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>TIN: 000916415043</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:solidFill>
-              <a:srgbClr val="3A7D22"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buSzPts val="900"/>
-            <a:buFont typeface="Arial" panose="020B0604020202020204"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" i="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204"/>
-              <a:ea typeface="Arial" panose="020B0604020202020204"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-              <a:sym typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>NIA-RO-AFD-FIN-INT-Form-209-Rev00</a:t>
-          </a:r>
-          <a:endParaRPr sz="900" i="1">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="800">
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" altLang="en-US" sz="800">
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8648700" cy="1019175"/>
+    <xdr:ext cx="8822690" cy="1149350"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="3" name="Shape 2" title="Drawing"/>
@@ -2827,9 +2379,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="123825" y="47625"/>
-          <a:ext cx="8648700" cy="1019175"/>
+          <a:ext cx="8822690" cy="1149350"/>
           <a:chOff x="1021650" y="3270413"/>
-          <a:chExt cx="8648700" cy="1019175"/>
+          <a:chExt cx="8825829" cy="1151694"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2840,9 +2392,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1021650" y="3270413"/>
-            <a:ext cx="8648700" cy="1019175"/>
+            <a:ext cx="8825829" cy="1151694"/>
             <a:chOff x="130968" y="71438"/>
-            <a:chExt cx="7679488" cy="1262061"/>
+            <a:chExt cx="7836767" cy="1426162"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
@@ -2957,9 +2509,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="130968" y="345283"/>
-              <a:ext cx="1702595" cy="821530"/>
+              <a:ext cx="1714166" cy="1086362"/>
               <a:chOff x="0" y="0"/>
-              <a:chExt cx="1149742" cy="514985"/>
+              <a:chExt cx="1157556" cy="680998"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:pic>
@@ -2979,7 +2531,7 @@
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="0" y="0"/>
-                <a:ext cx="546731" cy="506095"/>
+                <a:ext cx="562766" cy="672345"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3006,8 +2558,8 @@
             </xdr:blipFill>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="594556" y="0"/>
-                <a:ext cx="555186" cy="514985"/>
+                <a:off x="594708" y="0"/>
+                <a:ext cx="562848" cy="680998"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3035,8 +2587,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6667498" y="142873"/>
-              <a:ext cx="1142958" cy="1190626"/>
+              <a:off x="6787445" y="142824"/>
+              <a:ext cx="1180290" cy="1354776"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3220,7 +2772,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204"/>
                   <a:sym typeface="Arial" panose="020B0604020202020204"/>
                 </a:rPr>
-                <a:t>national irrigation administration</a:t>
+                <a:t>National Irrigation Administration</a:t>
               </a:r>
               <a:endParaRPr sz="1600">
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
@@ -3246,7 +2798,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204"/>
                   <a:sym typeface="Arial" panose="020B0604020202020204"/>
                 </a:rPr>
-                <a:t>regional office no. iv-a (calabarzon)</a:t>
+                <a:t>Regional Office No. IV-A (CALABARZON)</a:t>
               </a:r>
               <a:endParaRPr sz="1200">
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
@@ -3288,11 +2840,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11727815" cy="2398395"/>
+    <xdr:ext cx="11985625" cy="8496300"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="image14.png"/>
@@ -3306,8 +2858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="13430250"/>
-          <a:ext cx="11727815" cy="2398395"/>
+          <a:off x="24130" y="7085965"/>
+          <a:ext cx="11985625" cy="8496300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3319,10 +2871,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>956310</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1276350" cy="695325"/>
     <xdr:pic>
@@ -3338,7 +2890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9934575" y="14411325"/>
+          <a:off x="10266045" y="14301470"/>
           <a:ext cx="1276350" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3352,476 +2904,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6686550" cy="1304925"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="30946725"/>
-          <a:ext cx="6686550" cy="1304925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-GB"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>National Hi-way,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 502-0145 (COA) • 559 0727 (Regional Manager)</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t> • 576 5543 (Equipment) • 559-0724 (Finance) Telefax No.: (049) 559 0726</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Email:r4a@nia.gov.ph●Website: region4a.nia.gov.ph  Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica Neue"/>
-              <a:ea typeface="Helvetica Neue"/>
-              <a:cs typeface="Helvetica Neue"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>TIN: 000916415043</a:t>
-          </a:r>
-          <a:endParaRPr sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:solidFill>
-              <a:srgbClr val="3A7D22"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buSzPts val="900"/>
-            <a:buFont typeface="Arial" panose="020B0604020202020204"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" i="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204"/>
-              <a:ea typeface="Arial" panose="020B0604020202020204"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-              <a:sym typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>NIA-RO-AFD-FIN-INT-Form-209-Rev00</a:t>
-          </a:r>
-          <a:endParaRPr sz="900" i="1">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="900" i="1">
-            <a:latin typeface="Arial" panose="020B0604020202020204"/>
-            <a:ea typeface="Arial" panose="020B0604020202020204"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            <a:sym typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="800">
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" altLang="en-US" sz="800">
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8648700" cy="1019175"/>
+    <xdr:ext cx="8645525" cy="1191895"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="14" name="Shape 2" title="Drawing"/>
@@ -3831,10 +2918,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="123825" y="16773525"/>
-          <a:ext cx="8648700" cy="1019175"/>
+          <a:off x="123825" y="16770350"/>
+          <a:ext cx="8645525" cy="1191895"/>
           <a:chOff x="1021650" y="3270413"/>
-          <a:chExt cx="8648700" cy="1019175"/>
+          <a:chExt cx="8648700" cy="1193379"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3845,9 +2932,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1021650" y="3270413"/>
-            <a:ext cx="8648700" cy="1019175"/>
+            <a:ext cx="8648700" cy="1193379"/>
             <a:chOff x="130968" y="71438"/>
-            <a:chExt cx="7679488" cy="1262061"/>
+            <a:chExt cx="7679488" cy="1477781"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
@@ -3962,9 +3049,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="130968" y="345283"/>
-              <a:ext cx="1702595" cy="821530"/>
+              <a:ext cx="1702934" cy="1086024"/>
               <a:chOff x="0" y="0"/>
-              <a:chExt cx="1149742" cy="514985"/>
+              <a:chExt cx="1149971" cy="680786"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:pic>
@@ -3984,7 +3071,7 @@
             <xdr:spPr>
               <a:xfrm>
                 <a:off x="0" y="0"/>
-                <a:ext cx="546731" cy="506095"/>
+                <a:ext cx="546839" cy="651593"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4011,8 +3098,8 @@
             </xdr:blipFill>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="594556" y="0"/>
-                <a:ext cx="555186" cy="514985"/>
+                <a:off x="594708" y="0"/>
+                <a:ext cx="555263" cy="680786"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -4040,8 +3127,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6667498" y="142873"/>
-              <a:ext cx="1142958" cy="1190626"/>
+              <a:off x="6715071" y="142806"/>
+              <a:ext cx="1095385" cy="1406413"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4225,7 +3312,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204"/>
                   <a:sym typeface="Arial" panose="020B0604020202020204"/>
                 </a:rPr>
-                <a:t>national irrigation administration</a:t>
+                <a:t>National Irrigation Administration</a:t>
               </a:r>
               <a:endParaRPr sz="1600">
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
@@ -4251,7 +3338,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204"/>
                   <a:sym typeface="Arial" panose="020B0604020202020204"/>
                 </a:rPr>
-                <a:t>regional office no. iv-a (calabarzon)</a:t>
+                <a:t>Regional Office No. IV-A (CALABARZON)</a:t>
               </a:r>
               <a:endParaRPr sz="1200">
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
@@ -4293,14 +3380,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11727815" cy="2398395"/>
+    <xdr:ext cx="12110085" cy="7268210"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image14.png"/>
+        <xdr:cNvPr id="56" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4311,8 +3398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="29841825"/>
-          <a:ext cx="11727815" cy="2398395"/>
+          <a:off x="635" y="24532590"/>
+          <a:ext cx="12110085" cy="7268210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4322,38 +3409,566 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Text Box 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55245" y="30243780"/>
+          <a:ext cx="5667375" cy="1224915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-GB">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>National Hi-way, Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 559 0724 (COA) • 559 0727 (Regional Manager)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>          • 576 5543 (Equipment) • 523 3668 (Finance) Telefax No.: (049) 559 0726</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Website: region4a.nia.gov.ph • Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>TIN: 000916415043</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1056640</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1276350" cy="695325"/>
+      <xdr:colOff>886460</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image1.jpg"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="61" name="Picture 4392221"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9934575" y="30822900"/>
-          <a:ext cx="1276350" cy="695325"/>
+          <a:off x="10366375" y="30759400"/>
+          <a:ext cx="1230630" cy="607060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92710</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Text Box 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="92710" y="14006195"/>
+          <a:ext cx="5667375" cy="1224915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-GB">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>National Hi-way, Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 559 0724 (COA) • 559 0727 (Regional Manager)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>          • 576 5543 (Equipment) • 523 3668 (Finance) Telefax No.: (049) 559 0726</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>Website: region4a.nia.gov.ph • Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t>TIN: 000916415043</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128905</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 10532184"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64770" y="31493460"/>
+          <a:ext cx="2668270" cy="297815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 10532184"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81915" y="15219680"/>
+          <a:ext cx="2668270" cy="297815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4617,13 +4232,15 @@
   <sheetPr/>
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:I29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="30.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.6285714285714" customWidth="1"/>
+    <col min="16" max="16" width="21.0095238095238" customWidth="1"/>
+    <col min="17" max="17" width="20.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:17">
